--- a/Information for parameter estimation.xlsx
+++ b/Information for parameter estimation.xlsx
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H31"/>
+  <dimension ref="B4:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -579,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
@@ -618,24 +618,33 @@
       <c r="H19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>10.548500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>0.1769</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
@@ -643,22 +652,28 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>

--- a/Information for parameter estimation.xlsx
+++ b/Information for parameter estimation.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Liberia Overall" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Guinea Overall" sheetId="2" r:id="rId2"/>
+    <sheet name="Sierra Leon" sheetId="3" r:id="rId3"/>
+    <sheet name="West Africa" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Initial Case</t>
   </si>
@@ -97,13 +98,82 @@
   </si>
   <si>
     <t>fatality rate</t>
+  </si>
+  <si>
+    <t>December 2, 1 fell ill</t>
+  </si>
+  <si>
+    <t>March 2, Guinea Gov informed who</t>
+  </si>
+  <si>
+    <t>I am assuming Dec 2 as day 0</t>
+  </si>
+  <si>
+    <t>I am assuming day 110 as intervention start</t>
+  </si>
+  <si>
+    <t>June 12, country declared emergency</t>
+  </si>
+  <si>
+    <t>I am assuming day 50 as intervention start</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>5.43-5.545</t>
+  </si>
+  <si>
+    <t>0.2374-0.244</t>
+  </si>
+  <si>
+    <t>0.2033-0.2135</t>
+  </si>
+  <si>
+    <t>0.1-100</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>1.295-1.341</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>6.324-6.396</t>
+  </si>
+  <si>
+    <t>0.3525-0.3613</t>
+  </si>
+  <si>
+    <t>0.1994-0.2028</t>
+  </si>
+  <si>
+    <t>1.9-110</t>
+  </si>
+  <si>
+    <t>2.243-2.298</t>
+  </si>
+  <si>
+    <t>0.202-0.21</t>
+  </si>
+  <si>
+    <t>0.14-0.16</t>
+  </si>
+  <si>
+    <t>8.756-9.16</t>
+  </si>
+  <si>
+    <t>1.815-1.89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +185,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,11 +269,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,7 +296,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H31"/>
+  <dimension ref="B4:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +632,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -544,7 +641,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,13 +650,13 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -578,8 +675,11 @@
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
@@ -595,70 +695,152 @@
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
+      <c r="J18">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>10</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>6</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="7">
         <v>5.61</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>10.548500000000001</v>
+      </c>
+      <c r="J19">
+        <v>8.98</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>0.1769</v>
+      </c>
+      <c r="J20">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H22">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="J23">
+        <v>0.46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>1.86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f>70*70*138*40</f>
+        <v>27048000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -674,24 +856,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.4957000000000003</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.2407</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2084</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D7:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>41752</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="4:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="13"/>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="14"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Information for parameter estimation.xlsx
+++ b/Information for parameter estimation.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Liberia Overall" sheetId="1" r:id="rId1"/>
-    <sheet name="Guinea Overall" sheetId="2" r:id="rId2"/>
-    <sheet name="Sierra Leon" sheetId="3" r:id="rId3"/>
-    <sheet name="West Africa" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Initial Case</t>
   </si>
@@ -98,82 +97,13 @@
   </si>
   <si>
     <t>fatality rate</t>
-  </si>
-  <si>
-    <t>December 2, 1 fell ill</t>
-  </si>
-  <si>
-    <t>March 2, Guinea Gov informed who</t>
-  </si>
-  <si>
-    <t>I am assuming Dec 2 as day 0</t>
-  </si>
-  <si>
-    <t>I am assuming day 110 as intervention start</t>
-  </si>
-  <si>
-    <t>June 12, country declared emergency</t>
-  </si>
-  <si>
-    <t>I am assuming day 50 as intervention start</t>
-  </si>
-  <si>
-    <t>95% CI</t>
-  </si>
-  <si>
-    <t>5.43-5.545</t>
-  </si>
-  <si>
-    <t>0.2374-0.244</t>
-  </si>
-  <si>
-    <t>0.2033-0.2135</t>
-  </si>
-  <si>
-    <t>0.1-100</t>
-  </si>
-  <si>
-    <t>R0</t>
-  </si>
-  <si>
-    <t>1.295-1.341</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>6.324-6.396</t>
-  </si>
-  <si>
-    <t>0.3525-0.3613</t>
-  </si>
-  <si>
-    <t>0.1994-0.2028</t>
-  </si>
-  <si>
-    <t>1.9-110</t>
-  </si>
-  <si>
-    <t>2.243-2.298</t>
-  </si>
-  <si>
-    <t>0.202-0.21</t>
-  </si>
-  <si>
-    <t>0.14-0.16</t>
-  </si>
-  <si>
-    <t>8.756-9.16</t>
-  </si>
-  <si>
-    <t>1.815-1.89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +115,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,23 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,15 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K31"/>
+  <dimension ref="B4:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +535,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -641,7 +544,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -650,13 +553,13 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -675,11 +578,8 @@
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
@@ -695,152 +595,70 @@
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J18">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="1">
         <v>5.61</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I19">
-        <v>10.548500000000001</v>
-      </c>
-      <c r="J19">
-        <v>8.98</v>
-      </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="1">
-        <v>0.1769</v>
-      </c>
-      <c r="J20">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>120</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="J23">
-        <v>0.46</v>
-      </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26">
-        <v>1.86</v>
-      </c>
-      <c r="K26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="G29">
-        <f>70*70*138*40</f>
-        <v>27048000</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -856,343 +674,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F30"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5.4957000000000003</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.2407</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.2084</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:B8"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H28"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>41752</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="4:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D9" s="13"/>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="14"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6.36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.20119999999999999</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="1">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D8:D10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Information for parameter estimation.xlsx
+++ b/Information for parameter estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Liberia Overall" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Initial Case</t>
   </si>
@@ -167,6 +167,33 @@
   </si>
   <si>
     <t>1.815-1.89</t>
+  </si>
+  <si>
+    <t>Updated Parameter Estimate</t>
+  </si>
+  <si>
+    <t>official confirmation on March 31, 2 infected</t>
+  </si>
+  <si>
+    <t>Initial Case (day 0)</t>
+  </si>
+  <si>
+    <t>Intervention(day 120)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8.9-10.7</t>
+  </si>
+  <si>
+    <t>0.168-0.191</t>
+  </si>
+  <si>
+    <t>0.0001-0.1</t>
+  </si>
+  <si>
+    <t>0.0072-0.0264</t>
   </si>
 </sst>
 </file>
@@ -269,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -304,6 +331,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K31"/>
+  <dimension ref="B4:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,9 +660,11 @@
     <col min="3" max="3" width="44.88671875" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -640,7 +684,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -649,14 +693,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="O13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="N16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -678,8 +746,19 @@
       <c r="K17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,8 +780,15 @@
       <c r="J18">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
@@ -730,8 +816,15 @@
       <c r="K19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
@@ -752,7 +845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
@@ -773,7 +866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
@@ -786,7 +879,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
@@ -805,7 +898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
@@ -818,7 +911,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="N25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
         <v>38</v>
       </c>
@@ -828,26 +929,109 @@
       <c r="K26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="N27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="N28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="G29">
         <f>70*70*138*40</f>
         <v>27048000</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
+      <c r="N31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="N32" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="14">
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O19"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1130,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
